--- a/cases/case_subtask.xlsx
+++ b/cases/case_subtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,14 +123,6 @@
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,6 +166,10 @@
     <t>a:len=1,create_reward=1
 b:len=1
 c:len=1</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,7 +580,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,34 +659,34 @@
         <v>14</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="17" t="s">
+      <c r="M2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="40.5">
@@ -698,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -722,7 +718,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1">

--- a/cases/case_subtask.xlsx
+++ b/cases/case_subtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>开始任务：不传task_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_task_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,16 +127,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"task_id":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"task_id":"${payload.tasks.id}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_2</t>
+  </si>
+  <si>
+    <t>sub_task_4</t>
+  </si>
+  <si>
+    <t>/s4/subtask.detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"task_id":249166}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/subtask.giveup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"task_id":249166}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试玩任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_5</t>
+  </si>
+  <si>
+    <t>sub_task_6</t>
   </si>
   <si>
     <t>y</t>
@@ -543,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -611,172 +655,246 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="36">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="18">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="14">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="L2" s="14"/>
       <c r="M2" s="9"/>
       <c r="N2" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="40.5">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="36">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="I3" s="15"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
+      <c r="K3" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="24.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="18">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="14">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="36">
+      <c r="A5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="14">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="40.5">
+      <c r="A6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="18">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="18">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="69" customHeight="1">
+    <row r="9" spans="1:15" ht="18">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" ht="18">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="69" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
@@ -1241,6 +1359,30 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cases/case_subtask.xlsx
+++ b/cases/case_subtask.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"task_id":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sub_task_3</t>
   </si>
   <si>
@@ -135,25 +131,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sub_task_2</t>
+  </si>
+  <si>
+    <t>sub_task_4</t>
+  </si>
+  <si>
+    <t>/s4/subtask.detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试玩任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_5</t>
+  </si>
+  <si>
+    <t>sub_task_6</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"task_id":"${payload.tasks.id}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_task_2</t>
-  </si>
-  <si>
-    <t>sub_task_4</t>
-  </si>
-  <si>
-    <t>/s4/subtask.detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"task_id":249166}</t>
+    <t>{"task_id":261564}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_7</t>
+  </si>
+  <si>
+    <t>err_code=0
+payload.type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/lite.subtask.start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始任务：正常请求，排队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始任务：正常请求，进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,29 +207,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_8</t>
+  </si>
+  <si>
+    <t>/s4/lite.subtask.checkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_9</t>
+  </si>
+  <si>
+    <t>开启任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_10</t>
+  </si>
+  <si>
+    <t>sub_task_11</t>
+  </si>
+  <si>
+    <t>开始任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_12</t>
+  </si>
+  <si>
+    <t>err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/s4/subtask.giveup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"task_id":249166}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试玩任务详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放弃任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_task_5</t>
-  </si>
-  <si>
-    <t>sub_task_6</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>/s4/lite.subtask.start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5k/v2/subtask.open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"open_status": 1,"task_id": 261564,"task_type": 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"task_id": 261564,"task_type": 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/lite.open.status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,50 +762,50 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="9"/>
       <c r="N2" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="36">
       <c r="A3" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="7"/>
@@ -716,235 +815,379 @@
       <c r="L3" s="7"/>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="36">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="9"/>
       <c r="N4" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="13" customFormat="1" ht="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="18">
       <c r="A5" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="15">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="9"/>
       <c r="N5" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" ht="40.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="27">
       <c r="A6" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="14">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="14"/>
       <c r="M6" s="9"/>
       <c r="N6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="36">
       <c r="A7" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="14">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="36">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="14">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="36">
+      <c r="A9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="14">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="36">
+      <c r="A11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="15">
+        <v>3</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" ht="40.5">
+      <c r="A12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="14">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="18">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="18">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="18">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="69" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="18">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="18">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:13" ht="18">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:13" ht="69" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="1"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
@@ -952,7 +1195,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="F20" s="1"/>
@@ -960,7 +1203,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
@@ -968,7 +1211,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
@@ -976,7 +1219,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
@@ -984,7 +1227,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
@@ -992,7 +1235,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
@@ -1000,7 +1243,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
@@ -1008,7 +1251,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
@@ -1016,7 +1259,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
@@ -1024,7 +1267,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
@@ -1032,7 +1275,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
@@ -1040,7 +1283,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
@@ -1048,7 +1291,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
@@ -1383,6 +1626,54 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
